--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7E7CDD-5DF2-4BA5-A28F-4E0820DFED6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1D55D-0A33-4A90-92A9-AB5BF3B7FBC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,20 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dis cur | in sysname</t>
-  </si>
-  <si>
-    <t>dis clock</t>
-  </si>
-  <si>
-    <t>dis ver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dis int b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sh tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>show clock detail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +293,62 @@
   </si>
   <si>
     <t>10.23.19.3</t>
+  </si>
+  <si>
+    <t>display clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display current-configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cpu history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir flash:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ip interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -658,13 +696,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -673,21 +711,21 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>123456</v>
@@ -698,16 +736,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>123456</v>
@@ -718,16 +756,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>123456</v>
@@ -738,16 +776,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>123456</v>
@@ -767,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -778,13 +816,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -792,312 +830,330 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1D55D-0A33-4A90-92A9-AB5BF3B7FBC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67B0FB-6FD1-42C0-992E-79B26D1C94F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9398" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,16 +256,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cisco_ios</t>
+    <t>display clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display current-configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cpu history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir flash:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ip interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show tech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_asa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify /md5 system:running-config</t>
+  </si>
+  <si>
+    <t>show cpu usage detailed</t>
+  </si>
+  <si>
+    <t>show memory</t>
+  </si>
+  <si>
+    <t>show vlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show interface ip brief</t>
+  </si>
+  <si>
+    <t>show route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ospf neighbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ospf interface brief</t>
+  </si>
+  <si>
+    <t>show eigrp neighbors</t>
+  </si>
+  <si>
+    <t>show eigrp interfaces</t>
+  </si>
+  <si>
+    <t>show failover state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show failover</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Core_C3560G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.23.19.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
@@ -273,81 +369,62 @@
   </si>
   <si>
     <t>C3560G-24T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.23.19.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C2960S-24P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.23.19.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C2960L-24P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.23.19.3</t>
-  </si>
-  <si>
-    <t>display clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display current-configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display cpu history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display vlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dir flash:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display interface brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display ip interface brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show tech</t>
+  </si>
+  <si>
+    <t>ASA5508-X</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +445,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -388,23 +481,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,15 +786,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -698,10 +804,10 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -714,84 +820,124 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F5" s="2">
-        <v>123456</v>
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -803,356 +949,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="30.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.59765625" customWidth="1"/>
+    <col min="2" max="5" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>39</v>
       </c>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67B0FB-6FD1-42C0-992E-79B26D1C94F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59935134-E0F1-42AB-8EBD-49B302579E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,62 +361,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Core_C3560G</t>
+    <t>hp_comware</t>
+  </si>
+  <si>
+    <t>hp_comware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cpu</t>
+  </si>
+  <si>
+    <t>display vlan brief</t>
+  </si>
+  <si>
+    <t>display version</t>
+  </si>
+  <si>
+    <t>display ip routing-table</t>
+  </si>
+  <si>
+    <t>display ospf peer</t>
+  </si>
+  <si>
+    <t>display ospf interface</t>
+  </si>
+  <si>
+    <t>display current-configuration</t>
+  </si>
+  <si>
+    <t>cisco_ios_telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3560G-24T</t>
-  </si>
-  <si>
-    <t>C2960S-24P</t>
-  </si>
-  <si>
-    <t>C2960L-24P</t>
-  </si>
-  <si>
-    <t>ASA5508-X</t>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,14 +440,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -481,34 +458,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,157 +758,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
     <col min="2" max="2" width="30.59765625" customWidth="1"/>
     <col min="3" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -949,432 +875,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" customWidth="1"/>
-    <col min="2" max="5" width="30.59765625" customWidth="1"/>
+    <col min="1" max="7" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59935134-E0F1-42AB-8EBD-49B302579E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EF147-827C-40BE-A940-50020EE8BB1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,97 +157,6 @@
     <t>show running-config</t>
   </si>
   <si>
-    <t>查看当前配置信息</t>
-  </si>
-  <si>
-    <t>计算Running-Config的MD5值</t>
-  </si>
-  <si>
-    <t>查看EIGRP接口</t>
-  </si>
-  <si>
-    <t>查看EIGRP邻居关系</t>
-  </si>
-  <si>
-    <t>查看OSPF接口</t>
-  </si>
-  <si>
-    <t>查看OSPF邻居关系</t>
-  </si>
-  <si>
-    <t>查看路由表</t>
-  </si>
-  <si>
-    <t>查看CDP邻居信息</t>
-  </si>
-  <si>
-    <t>查看接口状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看VLAN信息</t>
-  </si>
-  <si>
-    <t>查看VTP密码</t>
-  </si>
-  <si>
-    <t>查看VTP状态信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看软件版本信息</t>
-  </si>
-  <si>
-    <t>查看日志信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看License特性</t>
-  </si>
-  <si>
-    <t>查看License All信息</t>
-  </si>
-  <si>
-    <t>查看UDI信息</t>
-  </si>
-  <si>
-    <t>查看内存使用率</t>
-  </si>
-  <si>
-    <t>查看CPU使用率历史记录</t>
-  </si>
-  <si>
-    <t>查看CPU使用率</t>
-  </si>
-  <si>
-    <t>查看引导变量</t>
-  </si>
-  <si>
-    <t>查看文件列表</t>
-  </si>
-  <si>
-    <t>查看引擎冗余切换历史记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看引擎冗余信息</t>
-  </si>
-  <si>
-    <t>查看电源状态</t>
-  </si>
-  <si>
-    <t>查看设备运行环境状态</t>
-  </si>
-  <si>
-    <t>查看模块信息</t>
-  </si>
-  <si>
-    <t>查看硬件信息</t>
-  </si>
-  <si>
-    <t>查看时间</t>
-  </si>
-  <si>
     <t>secret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,6 +316,72 @@
   <si>
     <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display esn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display device manuinfo</t>
+  </si>
+  <si>
+    <t>display power</t>
+  </si>
+  <si>
+    <t>display memory summary</t>
+  </si>
+  <si>
+    <t>display license feature</t>
+  </si>
+  <si>
+    <t>display boot-loader</t>
+  </si>
+  <si>
+    <t>display fan</t>
+  </si>
+  <si>
+    <t>display transceiver diagnosis interface</t>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_nxos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show redundancy status</t>
+  </si>
+  <si>
+    <t>show boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show license host-id</t>
+  </si>
+  <si>
+    <t>show license usage</t>
   </si>
 </sst>
 </file>
@@ -756,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -772,13 +743,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -787,50 +758,54 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -838,7 +813,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -848,23 +823,13 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -878,7 +843,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -888,576 +853,584 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="F4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EF147-827C-40BE-A940-50020EE8BB1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9C3E1-649B-4FC1-B119-A3A82F33E07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,9 +96,6 @@
     <t>show processes cpu</t>
   </si>
   <si>
-    <t>show processes cpu history</t>
-  </si>
-  <si>
     <t>show processes memory</t>
   </si>
   <si>
@@ -382,6 +379,14 @@
   </si>
   <si>
     <t>show license usage</t>
+  </si>
+  <si>
+    <t>show vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show vpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -766,44 +771,44 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -813,7 +818,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -823,7 +828,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -842,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -856,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -888,13 +893,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -911,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -929,7 +934,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -941,12 +946,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -962,10 +967,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -976,13 +981,15 @@
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -994,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1008,7 +1015,9 @@
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1025,10 +1034,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1041,14 +1050,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1063,87 +1072,83 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,77 +1156,77 @@
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1229,16 +1234,16 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1246,134 +1251,134 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1381,16 +1386,16 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1398,14 +1403,14 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1413,22 +1418,22 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3"/>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9C3E1-649B-4FC1-B119-A3A82F33E07E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CBC76F-A253-47E0-A29A-79A5F8C0D263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,42 @@
   </si>
   <si>
     <t>show vpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +771,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -810,31 +846,61 @@
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -848,7 +914,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CBC76F-A253-47E0-A29A-79A5F8C0D263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A4641-C7D0-4A69-88A9-4D3E802A8427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>93</v>
@@ -913,7 +913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A4641-C7D0-4A69-88A9-4D3E802A8427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC26BDC-4D63-49C7-BF4F-87B591A212D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,9 @@
   <si>
     <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display elable brief</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -998,7 +1001,9 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>88</v>
       </c>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC26BDC-4D63-49C7-BF4F-87B591A212D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5660EDD-4853-413E-9531-93BE27F83F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,159 +273,171 @@
     <t>display cpu</t>
   </si>
   <si>
+    <t>display version</t>
+  </si>
+  <si>
+    <t>display current-configuration</t>
+  </si>
+  <si>
+    <t>cisco_ios_telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display esn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display device manuinfo</t>
+  </si>
+  <si>
+    <t>display power</t>
+  </si>
+  <si>
+    <t>display memory summary</t>
+  </si>
+  <si>
+    <t>display license feature</t>
+  </si>
+  <si>
+    <t>display boot-loader</t>
+  </si>
+  <si>
+    <t>display fan</t>
+  </si>
+  <si>
+    <t>display transceiver diagnosis interface</t>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_nxos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show redundancy status</t>
+  </si>
+  <si>
+    <t>show boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show license host-id</t>
+  </si>
+  <si>
+    <t>show license usage</t>
+  </si>
+  <si>
+    <t>show vdc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show vpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display elable brief</t>
+  </si>
+  <si>
+    <t>display lldp neighbor-information brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ip routing-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ospf peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ospf interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display lldp neighbor brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>display vlan brief</t>
-  </si>
-  <si>
-    <t>display version</t>
-  </si>
-  <si>
-    <t>display ip routing-table</t>
-  </si>
-  <si>
-    <t>display ospf peer</t>
-  </si>
-  <si>
-    <t>display ospf interface</t>
-  </si>
-  <si>
-    <t>display current-configuration</t>
-  </si>
-  <si>
-    <t>cisco_ios_telnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display license</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display esn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display device manuinfo</t>
-  </si>
-  <si>
-    <t>display power</t>
-  </si>
-  <si>
-    <t>display memory summary</t>
-  </si>
-  <si>
-    <t>display license feature</t>
-  </si>
-  <si>
-    <t>display boot-loader</t>
-  </si>
-  <si>
-    <t>display fan</t>
-  </si>
-  <si>
-    <t>display transceiver diagnosis interface</t>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco_nxos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show redundancy status</t>
-  </si>
-  <si>
-    <t>show boot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show license</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show license host-id</t>
-  </si>
-  <si>
-    <t>show license usage</t>
-  </si>
-  <si>
-    <t>show vdc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show vpc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display elable brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -810,19 +822,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -830,39 +842,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -870,39 +882,39 @@
         <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -916,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -930,10 +942,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>52</v>
@@ -985,10 +997,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1002,10 +1014,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -1017,12 +1029,12 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -1053,14 +1065,14 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1072,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
@@ -1087,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1121,14 +1133,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1183,7 +1195,7 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -1195,16 +1207,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1216,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -1233,14 +1245,14 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -1282,7 +1294,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -1337,7 +1349,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1394,9 +1406,11 @@
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1413,11 +1427,12 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
@@ -1432,11 +1447,12 @@
       <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
@@ -1451,9 +1467,12 @@
       <c r="D28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
@@ -1504,7 +1523,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G31" s="3"/>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5660EDD-4853-413E-9531-93BE27F83F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77011A-BF7A-4637-BA9A-6C190826A5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,9 +411,6 @@
   <si>
     <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display elable brief</t>
   </si>
   <si>
     <t>display lldp neighbor-information brief</t>
@@ -786,7 +783,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -928,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1013,9 +1010,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>84</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1407,10 +1402,10 @@
         <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1428,10 +1423,10 @@
         <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1448,10 +1443,10 @@
         <v>61</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1468,10 +1463,10 @@
         <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E77011A-BF7A-4637-BA9A-6C190826A5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D2031-3F18-4598-9B38-8CF2ACD30052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,10 @@
   </si>
   <si>
     <t>display vlan brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show interface brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,7 +930,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1163,7 +1167,9 @@
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>46</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D2031-3F18-4598-9B38-8CF2ACD30052}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BBD9A7-8B23-4504-935E-24C257E6821D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>show tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cisco_asa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,13 +435,56 @@
   <si>
     <t>show interface brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ip interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show vrrp-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show running-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show gslb group brief</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +505,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,6 +550,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -823,19 +870,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
@@ -843,79 +890,79 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +977,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -943,19 +990,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -981,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -998,12 +1045,11 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -1016,9 +1062,8 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -1028,14 +1073,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1054,7 +1098,9 @@
       <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -1064,16 +1110,15 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1083,12 +1128,11 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1098,12 +1142,11 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -1116,13 +1159,15 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -1132,14 +1177,14 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1154,21 +1199,23 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1190,15 +1237,17 @@
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
@@ -1208,16 +1257,16 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1229,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -1246,14 +1295,14 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="3"/>
     </row>
@@ -1276,7 +1325,9 @@
       <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
@@ -1295,9 +1346,11 @@
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
@@ -1310,7 +1363,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1327,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1344,13 +1397,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1365,7 +1418,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>49</v>
@@ -1373,7 +1426,9 @@
       <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
@@ -1392,7 +1447,9 @@
       <c r="F24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
@@ -1405,13 +1462,13 @@
         <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1426,13 +1483,16 @@
         <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1446,13 +1506,13 @@
         <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1466,13 +1526,13 @@
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1486,11 +1546,13 @@
         <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
@@ -1501,7 +1563,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1524,9 +1586,11 @@
         <v>40</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BBD9A7-8B23-4504-935E-24C257E6821D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433D701-A114-400B-8DB0-D4A1FCCF505E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,7 +477,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>show ip route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>show gslb group brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -977,7 +982,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1492,7 +1497,7 @@
         <v>107</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1551,7 +1556,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433D701-A114-400B-8DB0-D4A1FCCF505E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7711134-6979-45F9-B59A-88CDD097F02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>display lldp neighbor-information brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display ip routing-table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,6 +479,9 @@
   <si>
     <t>show gslb group brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display lldp neighbor-information list</t>
   </si>
 </sst>
 </file>
@@ -982,7 +981,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1033,7 +1032,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1104,7 +1103,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1171,7 +1170,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1213,14 +1212,14 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1251,7 +1250,7 @@
         <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1331,7 +1330,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1354,7 +1353,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1408,7 +1407,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -1432,7 +1431,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1453,7 +1452,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1470,10 +1469,10 @@
         <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -1491,13 +1490,13 @@
         <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1514,10 +1513,10 @@
         <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1534,10 +1533,10 @@
         <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1556,7 +1555,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -1594,7 +1593,7 @@
         <v>69</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7711134-6979-45F9-B59A-88CDD097F02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1456794-C6C6-4FC1-9FF6-83BC95E63CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1263,9 +1263,7 @@
       <c r="C15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
@@ -1284,9 +1282,7 @@
       <c r="C16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1301,9 +1297,7 @@
       <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
         <v>81</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1456794-C6C6-4FC1-9FF6-83BC95E63CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A4BD4-D0D7-49E5-AAB9-E39DF454E395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,14 @@
   </si>
   <si>
     <t>display lldp neighbor-information list</t>
+  </si>
+  <si>
+    <t>show interfaces status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show environment all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,9 +557,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,10 +858,10 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -978,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1087,10 +1092,10 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1175,10 +1180,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>91</v>
@@ -1430,163 +1435,178 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>121</v>
       </c>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A4BD4-D0D7-49E5-AAB9-E39DF454E395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A34C53-01C3-4DEE-9C8B-23BAA402880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,18 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display ip routing-table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +478,37 @@
   <si>
     <t>show environment all</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruijie_os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show clock</t>
+  </si>
+  <si>
+    <t>show vlan</t>
+  </si>
+  <si>
+    <t>show license all-license</t>
+  </si>
+  <si>
+    <t>show interfaces status</t>
+  </si>
+  <si>
+    <t>device-f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
   </si>
 </sst>
 </file>
@@ -840,21 +859,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="6" width="20.59765625" customWidth="1"/>
+    <col min="1" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -874,7 +891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -894,9 +911,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -914,9 +931,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>97</v>
@@ -925,18 +942,18 @@
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>98</v>
@@ -945,18 +962,18 @@
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
@@ -965,13 +982,53 @@
         <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -983,18 +1040,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="35.59765625" customWidth="1"/>
+    <col min="1" max="8" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1073,11 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,10 +1097,13 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1090,12 +1153,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1108,10 +1171,10 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1129,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1143,7 +1206,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1220,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1175,10 +1238,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>91</v>
       </c>
@@ -1197,7 +1260,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1217,14 +1280,17 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1235,7 +1301,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1255,10 +1321,13 @@
         <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1276,8 +1345,11 @@
         <v>76</v>
       </c>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1292,7 +1364,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1381,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1329,15 +1401,18 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
@@ -1352,10 +1427,13 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1372,7 +1450,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1389,7 +1467,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1406,11 +1484,14 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1430,25 +1511,31 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1466,10 +1553,10 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,14 +1570,17 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1504,16 +1594,19 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1527,13 +1620,16 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1547,13 +1643,13 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1569,10 +1665,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1683,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1703,10 @@
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A34C53-01C3-4DEE-9C8B-23BAA402880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A4BD4-D0D7-49E5-AAB9-E39DF454E395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>display ip routing-table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,37 +490,6 @@
   <si>
     <t>show environment all</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruijie_os</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show clock</t>
-  </si>
-  <si>
-    <t>show vlan</t>
-  </si>
-  <si>
-    <t>show license all-license</t>
-  </si>
-  <si>
-    <t>show interfaces status</t>
-  </si>
-  <si>
-    <t>device-f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device-g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
   </si>
 </sst>
 </file>
@@ -859,19 +840,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -891,7 +874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -911,9 +894,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -931,9 +914,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>97</v>
@@ -942,18 +925,18 @@
         <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>98</v>
@@ -962,18 +945,18 @@
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>99</v>
@@ -982,53 +965,13 @@
         <v>102</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1040,18 +983,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="35.59765625" customWidth="1"/>
+    <col min="1" max="7" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1073,11 +1016,8 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1097,13 +1037,10 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1153,12 +1090,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1171,10 +1108,10 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1143,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1157,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1238,10 +1175,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>91</v>
       </c>
@@ -1260,7 +1197,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1280,17 +1217,14 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1301,7 +1235,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1321,13 +1255,10 @@
         <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1345,11 +1276,8 @@
         <v>76</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1292,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1309,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1401,18 +1329,15 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
@@ -1427,13 +1352,10 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1372,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1467,7 +1389,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1484,14 +1406,11 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1511,31 +1430,25 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1553,10 +1466,10 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1570,17 +1483,14 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1594,19 +1504,16 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1620,16 +1527,13 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1643,13 +1547,13 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1665,10 +1569,10 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1683,7 +1587,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1703,10 +1607,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Dev\Projects\Devices Inspection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95A4BD4-D0D7-49E5-AAB9-E39DF454E395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1C3AF-7066-4C82-BF70-ED9D533E4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2148" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,107 +389,141 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ip routing-table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ospf peer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display ospf interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display lldp neighbor brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display vlan brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ip interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show interface brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show vrrp-a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show running-config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ip route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show gslb group brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display lldp neighbor-information list</t>
+  </si>
+  <si>
+    <t>show interfaces status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show environment all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco_asa</t>
+  </si>
+  <si>
+    <t>ruijie_os</t>
+  </si>
+  <si>
+    <t>ruijie_os</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.1.1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display ip routing-table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display ospf peer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display ospf interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display lldp neighbor brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display vlan brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show interface brief</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>device-g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>show clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>show cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show ip interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show interface brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show vrrp-a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show running-config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show ip route</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show gslb group brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display lldp neighbor-information list</t>
+  </si>
+  <si>
+    <t>show license all-license</t>
   </si>
   <si>
     <t>show interfaces status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show environment all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,14 +586,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -840,42 +878,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="6" width="20.59765625" customWidth="1"/>
+    <col min="1" max="6" width="20.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -884,7 +920,7 @@
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -894,9 +930,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>88</v>
@@ -904,7 +940,7 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -914,64 +950,104 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>105</v>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -983,18 +1059,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="35.59765625" customWidth="1"/>
+    <col min="1" max="8" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1092,11 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H1" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1037,10 +1116,13 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1141,10 @@
       <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1073,8 +1157,10 @@
       <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1089,13 +1175,15 @@
       <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1108,10 +1196,11 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1128,8 +1217,10 @@
       <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1139,11 +1230,13 @@
       <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1153,11 +1246,13 @@
       <c r="C9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1175,10 +1270,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>91</v>
       </c>
@@ -1196,8 +1292,9 @@
         <v>82</v>
       </c>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1217,14 +1314,17 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1234,8 +1334,9 @@
         <v>46</v>
       </c>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1255,10 +1356,13 @@
         <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1276,8 +1380,11 @@
         <v>76</v>
       </c>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H15" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1291,8 +1398,9 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1308,8 +1416,9 @@
         <v>81</v>
       </c>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1329,10 +1438,13 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1352,10 +1464,13 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1371,8 +1486,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1388,8 +1504,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1406,11 +1523,14 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1430,25 +1550,31 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H24" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1466,10 +1592,11 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,14 +1610,15 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1504,16 +1632,19 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1527,13 +1658,17 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1547,13 +1682,17 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1569,10 +1708,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1586,8 +1726,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1748,10 @@
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1C3AF-7066-4C82-BF70-ED9D533E4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460205EE-250B-4C83-BD18-7627E476BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,7 +881,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1716,9 +1716,7 @@
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>53</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460205EE-250B-4C83-BD18-7627E476BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4DF784-F638-4D25-9A66-1F06FD83EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1716,7 +1716,9 @@
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>53</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4DF784-F638-4D25-9A66-1F06FD83EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5159F-112C-4891-B088-9C0498002F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,13 +524,37 @@
   </si>
   <si>
     <t>show interfaces status</t>
+  </si>
+  <si>
+    <t>cisco_ios_telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,13 +575,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -581,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,12 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -890,7 +901,7 @@
     <col min="7" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -909,15 +920,18 @@
       <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -929,15 +943,18 @@
       <c r="F2" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -949,15 +966,18 @@
       <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -969,15 +989,18 @@
       <c r="F4" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -989,15 +1012,18 @@
       <c r="F5" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1009,15 +1035,18 @@
       <c r="F6" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1029,15 +1058,18 @@
       <c r="F7" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1048,6 +1080,32 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1120,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1092,7 +1150,7 @@
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1118,7 +1176,7 @@
       <c r="G2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1141,8 +1199,8 @@
       <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -1157,8 +1215,8 @@
       <c r="F4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
@@ -1175,8 +1233,8 @@
       <c r="F5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
@@ -1198,7 +1256,7 @@
       <c r="G6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
@@ -1217,8 +1275,8 @@
       <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
@@ -1233,8 +1291,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -1249,8 +1307,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -1272,7 +1330,7 @@
       <c r="G10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -1292,7 +1350,7 @@
         <v>82</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
@@ -1316,7 +1374,7 @@
       <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1334,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
@@ -1358,7 +1416,7 @@
       <c r="G14" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1380,7 +1438,7 @@
         <v>76</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1398,7 +1456,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
@@ -1416,7 +1474,7 @@
         <v>81</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
@@ -1440,7 +1498,7 @@
       <c r="G18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1466,7 +1524,7 @@
       <c r="G19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1486,7 +1544,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
@@ -1504,7 +1562,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
@@ -1526,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1552,7 +1610,7 @@
       <c r="G23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1570,7 +1628,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1594,7 +1652,7 @@
       <c r="G25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
@@ -1616,7 +1674,7 @@
         <v>122</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
@@ -1637,10 +1695,10 @@
       <c r="F27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1663,8 +1721,8 @@
       <c r="F28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1687,8 +1745,8 @@
       <c r="F29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1710,7 +1768,7 @@
       <c r="G30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
@@ -1726,7 +1784,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
@@ -1750,7 +1808,7 @@
       <c r="G32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5159F-112C-4891-B088-9C0498002F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E0281-32D7-40CC-96E9-4DEAA27CA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,13 +892,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="20.59765625" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="7" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E0281-32D7-40CC-96E9-4DEAA27CA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A77C1B-62C6-456B-B584-B9C660E98386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,14 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,18 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
-  </si>
-  <si>
     <t>device-g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,15 +514,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +896,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -921,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -929,19 +933,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="3">
         <v>22</v>
@@ -949,22 +953,22 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G3" s="3">
         <v>23</v>
@@ -972,22 +976,22 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G4" s="3">
         <v>22</v>
@@ -995,22 +999,22 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="3">
         <v>22</v>
@@ -1018,22 +1022,22 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G6" s="3">
         <v>22</v>
@@ -1044,19 +1048,19 @@
         <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3">
         <v>22</v>
@@ -1067,19 +1071,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="3">
         <v>22</v>
@@ -1087,22 +1091,22 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G9" s="3">
         <v>22</v>
@@ -1136,7 +1140,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>51</v>
@@ -1151,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1174,10 +1178,10 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1194,10 +1198,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1213,7 +1217,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1226,22 +1230,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1254,7 +1258,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1266,14 +1270,14 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1286,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
@@ -1302,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1328,26 +1332,26 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
@@ -1372,17 +1376,17 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1411,10 +1415,10 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>55</v>
@@ -1428,18 +1432,18 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1450,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1466,12 +1470,12 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
@@ -1496,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>23</v>
@@ -1522,10 +1526,10 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1581,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
@@ -1608,7 +1612,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
@@ -1616,20 +1620,20 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1650,7 +1654,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1668,10 +1672,10 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -1690,13 +1694,13 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>30</v>
@@ -1716,10 +1720,10 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
@@ -1740,10 +1744,10 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
@@ -1766,7 +1770,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1806,7 +1810,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>36</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A77C1B-62C6-456B-B584-B9C660E98386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327D70F-BCF9-4A39-AC58-9C0A7DA3DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,110 @@
   </si>
   <si>
     <t>10.1.1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviec-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uname -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head -n 1 /etc/issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/cpuinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lspci -tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsusb -tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsmod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free -m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df -h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep MemTotal /proc/meminfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep MemFree /proc/meminfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat /proc/loadavg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdisk -l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount | column -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swapon -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iptables -L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -lntp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1112,6 +1216,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,18 +1246,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="35.59765625" customWidth="1"/>
+    <col min="1" max="9" width="35.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1157,8 +1282,11 @@
       <c r="H1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1183,8 +1311,11 @@
       <c r="H2" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1336,11 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1221,8 +1355,11 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1239,8 +1376,11 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -1261,8 +1401,11 @@
         <v>111</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1281,8 +1424,11 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1297,8 +1443,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1313,8 +1462,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1335,8 +1487,11 @@
         <v>115</v>
       </c>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -1355,8 +1510,11 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I11" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1381,8 +1539,11 @@
       <c r="H12" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1397,8 +1558,11 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1423,8 +1587,11 @@
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1612,11 @@
       <c r="H15" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1461,8 +1631,11 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1479,8 +1652,11 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1681,11 @@
       <c r="H18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1531,8 +1710,11 @@
       <c r="H19" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I19" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1549,8 +1731,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1752,11 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1591,8 +1779,11 @@
       <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>120</v>
       </c>
@@ -1636,7 +1827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -1658,7 +1849,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1871,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +1897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -1730,7 +1921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -1754,7 +1945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -1774,7 +1965,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +1981,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6327D70F-BCF9-4A39-AC58-9C0A7DA3DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8323DDC7-D867-41E7-84C6-5A856E0AD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8323DDC7-D867-41E7-84C6-5A856E0AD457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8048E2-90F0-4809-A965-3F46FE13F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ena</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>display ip routing-table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +511,6 @@
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1000,7 +992,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1029,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1040,7 +1032,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>71</v>
@@ -1057,13 +1049,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>71</v>
@@ -1086,7 +1078,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>71</v>
@@ -1103,13 +1095,13 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>71</v>
@@ -1132,7 +1124,7 @@
         <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>71</v>
@@ -1140,9 +1132,7 @@
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>22</v>
       </c>
@@ -1152,10 +1142,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>98</v>
@@ -1163,9 +1153,7 @@
       <c r="E7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>22</v>
       </c>
@@ -1175,10 +1163,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -1186,48 +1174,44 @@
       <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>72</v>
@@ -1280,10 +1264,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1306,13 +1290,13 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1337,7 +1321,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1356,7 +1340,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1377,15 +1361,15 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1398,11 +1382,11 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1425,7 +1409,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1444,7 +1428,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1463,7 +1447,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1484,11 +1468,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1511,7 +1495,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1534,20 +1518,20 @@
         <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -1559,7 +1543,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1582,13 +1566,13 @@
         <v>78</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1610,10 +1594,10 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1632,7 +1616,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1653,7 +1637,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1676,13 +1660,13 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1705,13 +1689,13 @@
         <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1732,7 +1716,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1753,7 +1737,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1773,14 +1757,14 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1803,7 +1787,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
@@ -1811,20 +1795,20 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1845,7 +1829,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1863,10 +1847,10 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -1885,13 +1869,13 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>30</v>
@@ -1911,10 +1895,10 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
@@ -1935,10 +1919,10 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
@@ -1961,7 +1945,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -2001,7 +1985,7 @@
         <v>69</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>36</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Labs\Devices_Inspection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Projects\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8048E2-90F0-4809-A965-3F46FE13F0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212EE153-2507-485D-83F6-B83C47C5513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,10 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deviec-i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.1.1.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,6 +643,10 @@
   </si>
   <si>
     <t>netstat -lntp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +992,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1205,13 +1205,13 @@
         <v>143</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>72</v>
@@ -1296,7 +1296,7 @@
         <v>126</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1321,7 +1321,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1340,7 +1340,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1361,7 +1361,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1409,7 +1409,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1428,7 +1428,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1447,7 +1447,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1495,7 +1495,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1524,7 +1524,7 @@
         <v>127</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1543,7 +1543,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1572,7 +1572,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1597,7 +1597,7 @@
         <v>128</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1616,7 +1616,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1637,7 +1637,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1666,7 +1666,7 @@
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1695,7 +1695,7 @@
         <v>107</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1716,7 +1716,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1737,7 +1737,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1764,7 +1764,7 @@
         <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Projects\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212EE153-2507-485D-83F6-B83C47C5513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB45C3-6D1B-4A9D-9742-23190671905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29544" yWindow="3000" windowWidth="23040" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +992,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Projects\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB45C3-6D1B-4A9D-9742-23190671905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A1D84-F3C7-4837-8BCA-0BE8587A0985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29544" yWindow="3000" windowWidth="23040" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1382,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
@@ -1425,7 +1425,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
         <v>152</v>
@@ -1468,7 +1470,7 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Projects\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9A1D84-F3C7-4837-8BCA-0BE8587A0985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60325526-08BD-4F1E-AD85-645D0845E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,6 +647,14 @@
   </si>
   <si>
     <t>device-i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juniper_junos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,18 +1238,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="35.59765625" customWidth="1"/>
+    <col min="10" max="11" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1269,8 +1278,14 @@
       <c r="I1" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1389,7 +1404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1492,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -1500,7 +1515,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -1548,7 +1563,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1617,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python Projects\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60325526-08BD-4F1E-AD85-645D0845E869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B29CA67-3E08-4A2E-B3A7-D757213A8884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>hp_comware</t>
-  </si>
-  <si>
-    <t>hp_comware</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -655,6 +652,18 @@
   </si>
   <si>
     <t>juniper_junos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show cur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display vrrp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1029,7 +1038,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1037,19 +1046,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G2" s="3">
         <v>22</v>
@@ -1057,22 +1066,22 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G3" s="3">
         <v>23</v>
@@ -1080,22 +1089,22 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="3">
         <v>22</v>
@@ -1103,22 +1112,22 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G5" s="3">
         <v>22</v>
@@ -1126,19 +1135,19 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
@@ -1147,19 +1156,19 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3">
@@ -1171,16 +1180,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
@@ -1189,19 +1198,19 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -1210,19 +1219,19 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1238,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1250,15 +1259,15 @@
     <col min="10" max="11" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>51</v>
@@ -1273,19 +1282,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1305,16 +1317,19 @@
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1328,18 +1343,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1350,15 +1365,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1366,25 +1381,25 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1401,10 +1416,10 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1412,22 +1427,22 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1435,20 +1450,20 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
@@ -1464,10 +1479,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1483,39 +1498,41 @@
       <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1532,38 +1549,36 @@
         <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1580,19 +1595,19 @@
         <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1600,24 +1615,24 @@
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1633,7 +1648,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1644,17 +1659,17 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1677,13 +1692,13 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1703,16 +1718,16 @@
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1733,7 +1748,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1754,7 +1769,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1774,14 +1789,14 @@
         <v>47</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1804,7 +1819,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
@@ -1812,20 +1827,20 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1846,7 +1861,7 @@
         <v>50</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1864,10 +1879,10 @@
         <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="1"/>
@@ -1886,13 +1901,13 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>30</v>
@@ -1912,10 +1927,10 @@
         <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
@@ -1936,10 +1951,10 @@
         <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
@@ -1960,9 +1975,11 @@
         <v>62</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="G30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1999,14 +2016,17 @@
         <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="33" spans="6:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4_Learn\Python\devices_inspection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37A811-C510-42E6-BB59-AA30A658977D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830BC5D-D8B0-4906-B895-A8C2190D49F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="1716" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="174">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,10 +318,6 @@
   </si>
   <si>
     <t>show module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show boot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,7 +1057,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1072,7 +1068,7 @@
         <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>65</v>
@@ -1089,13 +1085,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>65</v>
@@ -1115,10 +1111,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>65</v>
@@ -1135,13 +1131,13 @@
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
@@ -1161,10 +1157,10 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>65</v>
@@ -1182,16 +1178,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1203,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>65</v>
@@ -1221,16 +1217,16 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>66</v>
@@ -1242,16 +1238,16 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>66</v>
@@ -1272,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8D0F8-BD17-4983-B8A6-388FF13B2F1C}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1305,16 +1301,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N1" s="3"/>
     </row>
@@ -1338,15 +1334,15 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1373,15 +1369,15 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1400,7 +1396,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1423,7 +1419,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1440,7 +1436,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1461,7 +1457,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1478,7 +1474,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1501,24 +1497,24 @@
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -1532,7 +1528,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1555,15 +1551,15 @@
         <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1580,7 +1576,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1603,7 +1599,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>50</v>
@@ -1611,7 +1607,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1622,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1633,12 +1629,12 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1649,7 +1645,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1659,7 +1655,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1670,7 +1666,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1682,7 +1678,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1705,7 +1701,7 @@
         <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -1713,7 +1709,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1736,15 +1732,15 @@
         <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1756,13 +1752,13 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1778,7 +1774,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1797,7 +1793,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1806,17 +1802,17 @@
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -1873,7 +1869,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
@@ -1885,18 +1881,18 @@
     </row>
     <row r="26" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1906,18 +1902,18 @@
     </row>
     <row r="27" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1927,24 +1923,24 @@
     </row>
     <row r="28" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1952,7 +1948,7 @@
     </row>
     <row r="29" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1969,7 +1965,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -1979,7 +1975,7 @@
         <v>45</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2006,7 +2002,7 @@
         <v>46</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>25</v>
@@ -2017,20 +2013,20 @@
     </row>
     <row r="32" spans="1:11" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2050,10 +2046,10 @@
         <v>54</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
@@ -2077,10 +2073,10 @@
         <v>55</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
@@ -2134,18 +2130,18 @@
     </row>
     <row r="37" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2155,18 +2151,18 @@
     </row>
     <row r="38" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2188,13 +2184,13 @@
         <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>27</v>
@@ -2207,13 +2203,13 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2222,7 +2218,7 @@
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.05" customHeight="1" x14ac:dyDescent="0.35">
@@ -2245,7 +2241,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>32</v>
